--- a/excel DB format/departments.xlsx
+++ b/excel DB format/departments.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugene/Desktop/Project/educore/excel DB format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1695E2AE-B4FE-114F-8579-9A84E71F126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1E463-B82E-E74A-A272-83E5DF4E4309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -650,17 +650,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070EF7BD-9A72-9E49-8AD5-5D6A8CA72691}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,11 +797,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -808,10 +809,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -819,10 +820,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -830,10 +831,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -841,21 +842,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -863,10 +864,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -874,28 +875,27 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>